--- a/floorHigh.xlsx
+++ b/floorHigh.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kito\Documents\Fall '15\Software Engineering (CSCI306)\workspace\Final-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="10290"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13400" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,18 +68,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -288,15 +293,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -311,17 +413,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,6 +452,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -346,8 +470,8 @@
       <xdr:rowOff>210648</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="548787" cy="283918"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -383,6 +507,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -393,7 +518,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="800" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -422,7 +547,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -518,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,7 +678,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,691 +889,691 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="25" width="5.28515625" customWidth="1"/>
+    <col min="1" max="25" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="18"/>
-    </row>
-    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="26"/>
-    </row>
-    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="8"/>
-    </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="13"/>
-    </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="20" t="s">
+    <row r="1" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+    </row>
+    <row r="2" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+    </row>
+    <row r="3" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+    </row>
+    <row r="4" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+    </row>
+    <row r="5" spans="1:25" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="27"/>
+    </row>
+    <row r="6" spans="1:25" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="28"/>
+    </row>
+    <row r="7" spans="1:25" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+    </row>
+    <row r="10" spans="1:25" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+    </row>
+    <row r="11" spans="1:25" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="21"/>
+    </row>
+    <row r="12" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="42"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="8"/>
-    </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="12"/>
-    </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="5"/>
-    </row>
-    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="5"/>
-    </row>
-    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="5"/>
-    </row>
-    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="13"/>
-    </row>
-    <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="5"/>
-    </row>
-    <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="5"/>
-    </row>
-    <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="15"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="42"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="42"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:25" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="36"/>
+    </row>
+    <row r="19" spans="1:25" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="10"/>
+    </row>
+    <row r="23" spans="1:25" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" ht="20.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,7 +1588,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1475,7 +1600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
